--- a/project-plan.xlsx
+++ b/project-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robef3\git\building-a-cicd-pipeline2_NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D5E66-EF78-425D-B332-7D64D0415359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF478D2-1F9D-4754-BC06-A8AA20631F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Week</t>
   </si>
@@ -77,6 +77,30 @@
   </si>
   <si>
     <t>Set up the Azure DevOps pipeline</t>
+  </si>
+  <si>
+    <t>Submit the project</t>
+  </si>
+  <si>
+    <t>Yearly plan</t>
+  </si>
+  <si>
+    <t>Q4 plan</t>
+  </si>
+  <si>
+    <t>Review the code and ensure it still works</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
   </si>
 </sst>
 </file>
@@ -381,7 +405,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -396,7 +420,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -428,7 +454,9 @@
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -458,7 +486,9 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -488,7 +518,9 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -520,7 +552,9 @@
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -550,7 +584,9 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -580,7 +616,9 @@
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -612,7 +650,9 @@
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -642,7 +682,9 @@
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -672,7 +714,9 @@
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -702,7 +746,9 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -734,7 +780,9 @@
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -766,7 +814,9 @@
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -796,7 +846,9 @@
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -826,7 +878,9 @@
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -856,7 +910,9 @@
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -969,33 +1025,13 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
+    <row r="20" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
@@ -1025,33 +1061,13 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
+    <row r="22" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
